--- a/analysis/mails_01/P09_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P09_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,13 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-29</t>
+    <t xml:space="preserve">14/12/2021 10:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6147</t>
   </si>
   <si>
     <t xml:space="preserve">lakes</t>
@@ -93,100 +99,277 @@
     <t xml:space="preserve">MFD06945</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6034</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06946</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6487</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06947</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6465</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06948</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6508</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06949</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6563</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06950</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.702</t>
+  </si>
+  <si>
     <t xml:space="preserve">laven</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06951</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7167</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06952</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7152</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06953</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7028</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06954</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6714</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06955</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6695</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06956</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4078</t>
+  </si>
+  <si>
     <t xml:space="preserve">holstebro</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06958</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4433</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06959</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2021 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4895</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06960</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4755</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06961</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4651</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06962</t>
   </si>
   <si>
+    <t xml:space="preserve">56.274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4931</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06963</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2468</t>
+  </si>
+  <si>
     <t xml:space="preserve">avernakø</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06964</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2452</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06965</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2641</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06966</t>
   </si>
   <si>
+    <t xml:space="preserve">55.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.26</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06967</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2592</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06968</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2562</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06969</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3186</t>
+  </si>
+  <si>
     <t xml:space="preserve">ærø</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06970</t>
   </si>
   <si>
+    <t xml:space="preserve">54.8705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3363</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06971</t>
   </si>
   <si>
+    <t xml:space="preserve">54.8743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3287</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06972</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3334</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06973</t>
   </si>
   <si>
+    <t xml:space="preserve">54.8655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3482</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD06974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3906</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -638,41 +821,41 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
-        <v>56.0228</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.6147</v>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -680,41 +863,41 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
-        <v>56.0209</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.6034</v>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -722,41 +905,41 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
-        <v>56.0491</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.6487</v>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -764,41 +947,41 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
-        <v>56.0472</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.6465</v>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -806,41 +989,41 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
-        <v>56.0429</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.6508</v>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -848,41 +1031,41 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
-        <v>56.0433</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.6563</v>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -890,41 +1073,41 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
-        <v>56.1298</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.702</v>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -932,41 +1115,41 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
-        <v>56.1387</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.7167</v>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -974,41 +1157,41 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="n">
-        <v>56.1423</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.7152</v>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1016,41 +1199,41 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="n">
-        <v>56.1517</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.7028</v>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1058,41 +1241,41 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="n">
-        <v>56.1745</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.6714</v>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1100,41 +1283,41 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="n">
-        <v>56.1818</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.6695</v>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,41 +1325,41 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="n">
-        <v>56.2495</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.4078</v>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1184,83 +1367,83 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="n">
-        <v>56.2443</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.4433</v>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56.2191</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.4895</v>
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1268,41 +1451,41 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="n">
-        <v>56.2112</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.4755</v>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1310,41 +1493,41 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="n">
-        <v>56.2836</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.4651</v>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1352,41 +1535,41 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="n">
-        <v>56.274</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.4931</v>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1394,41 +1577,41 @@
       <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="n">
-        <v>55.0317</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10.2468</v>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1436,41 +1619,41 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="n">
-        <v>55.0315</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10.2452</v>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -1478,41 +1661,41 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="n">
-        <v>55.0222</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.2641</v>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1520,41 +1703,41 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="n">
-        <v>55.03</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10.26</v>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1562,41 +1745,41 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="n">
-        <v>55.0217</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.2592</v>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1604,41 +1787,41 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="n">
-        <v>55.0215</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10.2562</v>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1646,41 +1829,41 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="n">
-        <v>54.9022</v>
-      </c>
-      <c r="E26" t="n">
-        <v>10.3186</v>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1688,41 +1871,41 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" t="n">
-        <v>54.8705</v>
-      </c>
-      <c r="E27" t="n">
-        <v>10.3363</v>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -1730,41 +1913,41 @@
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="n">
-        <v>54.8743</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10.3287</v>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -1772,41 +1955,41 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="n">
-        <v>54.9013</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10.3334</v>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -1814,41 +1997,41 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="n">
-        <v>54.8655</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10.3482</v>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -1856,36 +2039,36 @@
       <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="n">
-        <v>54.857</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10.3906</v>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1904,10 +2087,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -1915,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -1923,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
@@ -1931,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -1939,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -1947,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -1955,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1963,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
@@ -1971,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -1979,7 +2162,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -1987,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -1995,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2003,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -2011,7 +2194,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -2019,7 +2202,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P09_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P09_2/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">14/12/2021 10:55</t>
+    <t xml:space="preserve">2021-12-14</t>
   </si>
   <si>
     <t xml:space="preserve">56.0228</t>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD06959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2021 00:00</t>
   </si>
   <si>
     <t xml:space="preserve">56.2191</t>
@@ -1407,13 +1404,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1443,19 +1440,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1485,19 +1482,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -1527,19 +1524,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -1569,28 +1566,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>82</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
         <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
@@ -1611,20 +1608,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
@@ -1632,7 +1629,7 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
@@ -1653,20 +1650,20 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>89</v>
       </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -1695,20 +1692,20 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
@@ -1716,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -1737,20 +1734,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1755,7 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -1779,20 +1776,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
-        <v>99</v>
-      </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
@@ -1821,28 +1818,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
         <v>100</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>101</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
         <v>102</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s">
-        <v>103</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
@@ -1863,20 +1860,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>105</v>
       </c>
-      <c r="E27" t="s">
-        <v>106</v>
-      </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
@@ -1884,7 +1881,7 @@
         <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
@@ -1905,20 +1902,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
         <v>107</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>108</v>
       </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
@@ -1926,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
@@ -1947,20 +1944,20 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>111</v>
       </c>
-      <c r="E29" t="s">
-        <v>112</v>
-      </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
@@ -1968,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -1989,20 +1986,20 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
         <v>113</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>114</v>
       </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -2031,20 +2028,20 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
         <v>116</v>
       </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="E31" t="s">
-        <v>118</v>
-      </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
@@ -2052,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -2087,10 +2084,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -2098,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -2106,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -2114,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -2122,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -2130,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -2138,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -2146,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2154,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -2162,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -2170,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -2178,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2186,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2194,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -2202,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P09_2/table_to_fill.xlsx
+++ b/analysis/mails_01/P09_2/table_to_fill.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-14</t>
+    <t xml:space="preserve">2021-11-29</t>
   </si>
   <si>
     <t xml:space="preserve">56.0228</t>
